--- a/ELISA_data/091918 IL10 Plate 2.xlsx
+++ b/ELISA_data/091918 IL10 Plate 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="25480" windowHeight="15420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>Software Version</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +512,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -530,6 +535,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -552,6 +558,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -822,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1965,15 +1972,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F32" sqref="F32:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1989,8 +1996,11 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="14">
         <v>0.435</v>
       </c>
@@ -2006,8 +2016,11 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="14">
         <v>0.47699999999999998</v>
       </c>
@@ -2023,8 +2036,11 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>0.29399999999999998</v>
       </c>
@@ -2040,8 +2056,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="15">
         <v>0.73099999999999998</v>
       </c>
@@ -2057,8 +2076,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>0.47</v>
       </c>
@@ -2074,8 +2096,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>0.45800000000000002</v>
       </c>
@@ -2091,8 +2116,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>0.44600000000000001</v>
       </c>
@@ -2108,8 +2136,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="14">
         <v>0.41599999999999998</v>
       </c>
@@ -2125,8 +2156,11 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="16">
         <v>0.78400000000000003</v>
       </c>
@@ -2142,8 +2176,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="15">
         <v>0.76500000000000001</v>
       </c>
@@ -2159,8 +2196,11 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>0.42399999999999999</v>
       </c>
@@ -2176,8 +2216,11 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>0.41099999999999998</v>
       </c>
@@ -2193,8 +2236,11 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="11">
         <v>0.14099999999999999</v>
       </c>
@@ -2210,8 +2256,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="11">
         <v>0.13800000000000001</v>
       </c>
@@ -2227,8 +2276,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="11">
         <v>0.13700000000000001</v>
       </c>
@@ -2244,8 +2296,11 @@
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="9">
         <v>0.28399999999999997</v>
       </c>
@@ -2261,8 +2316,11 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="10">
         <v>0.26400000000000001</v>
       </c>
@@ -2278,8 +2336,11 @@
       <c r="E18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="9">
         <v>0.309</v>
       </c>
@@ -2295,8 +2356,11 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="9">
         <v>0.33400000000000002</v>
       </c>
@@ -2312,8 +2376,11 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="10">
         <v>0.26600000000000001</v>
       </c>
@@ -2329,8 +2396,11 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="11">
         <v>0.19500000000000001</v>
       </c>
@@ -2346,8 +2416,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="11">
         <v>0.17499999999999999</v>
       </c>
@@ -2363,8 +2436,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="11">
         <v>0.13400000000000001</v>
       </c>
@@ -2380,8 +2456,11 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8">
         <v>0.64500000000000002</v>
       </c>
@@ -2397,8 +2476,11 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>0.47599999999999998</v>
       </c>
@@ -2414,8 +2496,11 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>0.128</v>
       </c>
@@ -2431,8 +2516,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="20">
         <v>0.60499999999999998</v>
       </c>
@@ -2448,8 +2536,11 @@
       <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>0.42299999999999999</v>
       </c>
@@ -2465,8 +2556,11 @@
       <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>0.46500000000000002</v>
       </c>
@@ -2482,8 +2576,11 @@
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="16">
         <v>0.82899999999999996</v>
       </c>
@@ -2499,8 +2596,11 @@
       <c r="E31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="14">
         <v>0.45100000000000001</v>
       </c>
@@ -2516,8 +2616,11 @@
       <c r="E32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="17">
         <v>0.54300000000000004</v>
       </c>
@@ -2533,8 +2636,11 @@
       <c r="E33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="18">
         <v>0.36299999999999999</v>
       </c>
@@ -2550,8 +2656,11 @@
       <c r="E34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="19">
         <v>0.86499999999999999</v>
       </c>
@@ -2567,8 +2676,11 @@
       <c r="E35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="17">
         <v>0.504</v>
       </c>
@@ -2584,8 +2696,11 @@
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="17">
         <v>0.48199999999999998</v>
       </c>
@@ -2601,8 +2716,11 @@
       <c r="E37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>0.45700000000000002</v>
       </c>
@@ -2618,8 +2736,11 @@
       <c r="E38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>0.47799999999999998</v>
       </c>
@@ -2635,8 +2756,11 @@
       <c r="E39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="19">
         <v>0.86399999999999999</v>
       </c>
@@ -2652,8 +2776,11 @@
       <c r="E40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="19">
         <v>0.84799999999999998</v>
       </c>
@@ -2669,8 +2796,11 @@
       <c r="E41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>0.42599999999999999</v>
       </c>
@@ -2686,8 +2816,11 @@
       <c r="E42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="18">
         <v>0.38300000000000001</v>
       </c>
@@ -2703,8 +2836,11 @@
       <c r="E43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="11">
         <v>0.125</v>
       </c>
@@ -2720,8 +2856,11 @@
       <c r="E44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="11">
         <v>0.126</v>
       </c>
@@ -2737,8 +2876,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="11">
         <v>0.13300000000000001</v>
       </c>
@@ -2754,8 +2896,11 @@
       <c r="E46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="9">
         <v>0.28399999999999997</v>
       </c>
@@ -2771,8 +2916,11 @@
       <c r="E47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="10">
         <v>0.25600000000000001</v>
       </c>
@@ -2788,8 +2936,11 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="9">
         <v>0.314</v>
       </c>
@@ -2805,8 +2956,11 @@
       <c r="E49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="9">
         <v>0.32800000000000001</v>
       </c>
@@ -2822,8 +2976,11 @@
       <c r="E50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="10">
         <v>0.26500000000000001</v>
       </c>
@@ -2839,8 +2996,11 @@
       <c r="E51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="10">
         <v>0.2</v>
       </c>
@@ -2856,8 +3016,11 @@
       <c r="E52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="11">
         <v>0.16900000000000001</v>
       </c>
@@ -2873,8 +3036,11 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="11">
         <v>0.14799999999999999</v>
       </c>
@@ -2890,8 +3056,11 @@
       <c r="E54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="15">
         <v>0.73099999999999998</v>
       </c>
@@ -2907,8 +3076,11 @@
       <c r="E55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="17">
         <v>0.48499999999999999</v>
       </c>
@@ -2924,8 +3096,11 @@
       <c r="E56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="11">
         <v>0.125</v>
       </c>
@@ -2941,8 +3116,11 @@
       <c r="E57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="8">
         <v>0.66500000000000004</v>
       </c>
@@ -2958,8 +3136,11 @@
       <c r="E58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="17">
         <v>0.52100000000000002</v>
       </c>
@@ -2975,8 +3156,11 @@
       <c r="E59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="20">
         <v>0.55900000000000005</v>
       </c>
@@ -2992,8 +3176,11 @@
       <c r="E60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="19">
         <v>0.86899999999999999</v>
       </c>
@@ -3008,6 +3195,9 @@
       </c>
       <c r="E61">
         <v>4</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
